--- a/data/archetypes/Archetypes.xlsx
+++ b/data/archetypes/Archetypes.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/Archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16241A67-680C-4ECB-8727-6E3402D80B66}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1CF476-F153-427D-BA6E-12ED13E4D71E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
-    <sheet name="satellite_data" sheetId="3" r:id="rId3"/>
-    <sheet name="satellite_details" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
   <si>
     <t>Mineral Name</t>
   </si>
@@ -505,111 +503,12 @@
   <si>
     <t>SOURCE</t>
   </si>
-  <si>
-    <t>Substances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part of the supply chain </t>
-  </si>
-  <si>
-    <t>Satellite</t>
-  </si>
-  <si>
-    <t>SO2</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://so2.gsfc.nasa.gov/measures.html</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/15/75/2023/#section5&amp;gid=1&amp;pid=1</t>
-  </si>
-  <si>
-    <t>OMI, TROPOMI,  OMPS</t>
-  </si>
-  <si>
-    <t>NO2</t>
-  </si>
-  <si>
-    <t>TROPOMI</t>
-  </si>
-  <si>
-    <t>CO2, CH4</t>
-  </si>
-  <si>
-    <t>OCO-2, TROPOMI</t>
-  </si>
-  <si>
-    <t>Energy consumption</t>
-  </si>
-  <si>
-    <t>Particulate matter</t>
-  </si>
-  <si>
-    <t>Dust emissions during mining</t>
-  </si>
-  <si>
-    <t>VOCs</t>
-  </si>
-  <si>
-    <t>MODIS, VIIRS</t>
-  </si>
-  <si>
-    <t>Refining processes</t>
-  </si>
-  <si>
-    <t>Articles</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2023GL104109</t>
-  </si>
-  <si>
-    <t>Mining-related NOx is produced by high-temperature combustion of fuel used by trucks and other heavy machinery as well as by electric generators.</t>
-  </si>
-  <si>
-    <t>The TROPOspheric Monitoring Instrument (TROPOMI) is the satellite instrument on board the Copernicus Sentinel-5 Precursor satellite. The Sentinel-5 Precursor (S5P) is the first of the atmospheric composition Sentinels, launched on 13 October 2017, planned for a mission of a minimum of seven years</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol Index 
-Aerosol Layer Height 
-Carbon Monoxide 
-Cloud Properties 
-Formaldehyde 
-Methane 
-Nitrogen Dioxide 
-Ozone Profile 
-Ozone Total Column
-Sulfur Dioxide </t>
-  </si>
-  <si>
-    <t>https://www.tropomi.eu/</t>
-  </si>
-  <si>
-    <t>https://browser.dataspace.copernicus.eu/?zoom=7&amp;lat=47.34212&amp;lng=-66.65405&amp;themeId=ATMOSPHERE&amp;visualizationUrl=U2FsdGVkX19bvNJhWz7wANLAJ%2BUkTbimfsnGWhYXtiWNihtwi1DAnCK9OJdCqX35kGMMFEAXxA4oJEESLtPfWDC962aXTUAR%2FRPd4V3p5Tq0jhMvfuERGE01VOCtQ8UV&amp;datasetId=S5_NO2_CDAS&amp;fromTime=2024-12-09T00%3A00%3A00.000Z&amp;toTime=2024-12-09T23%3A59%3A59.999Z&amp;layerId=NO2_VISUALIZED&amp;demSource3D=%22MAPZEN%22&amp;cloudCoverage=30&amp;dateMode=SINGLE</t>
-  </si>
-  <si>
-    <t>https://dataspace.copernicus.eu/analyse</t>
-  </si>
-  <si>
-    <t>SO2 results from both anthropogenic (e.g., coal combustion, smelting of sulfur-rich ores) and natural (volcanism, marine biological processes) sources. It contributes to acid rain and particle formation.</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,30 +518,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -682,27 +557,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,10 +581,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,8 +851,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +903,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,171 +1435,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D7211A-4B80-4150-B661-2C3F37A14E39}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{01DEB2E7-AA8C-4A9D-A64E-A8E20CDEE19D}"/>
-    <hyperlink ref="E2" r:id="rId2" location="section5&amp;gid=1&amp;pid=1" xr:uid="{A942C9FB-F2FF-468B-ADDC-4E0BE3C50384}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{B24BB598-B837-4964-AE84-4BC1D0194165}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C282639D-B1A7-4B3A-9D3B-51B7068AA321}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="63.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1B7D5B97-B6C1-47F1-9198-4BDF559B172E}"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://browser.dataspace.copernicus.eu/?zoom=7&amp;lat=47.34212&amp;lng=-66.65405&amp;themeId=ATMOSPHERE&amp;visualizationUrl=U2FsdGVkX19bvNJhWz7wANLAJ%2BUkTbimfsnGWhYXtiWNihtwi1DAnCK9OJdCqX35kGMMFEAXxA4oJEESLtPfWDC962aXTUAR%2FRPd4V3p5Tq0jhMvfuERGE01VOCtQ8UV&amp;datasetId=S5_NO2_CDAS&amp;fromTime=2024-12-09T00%3A00%3A00.000Z&amp;toTime=2024-12-09T23%3A59%3A59.999Z&amp;layerId=NO2_VISUALIZED&amp;demSource3D=%22MAPZEN%22&amp;cloudCoverage=30&amp;dateMode=SINGLE" xr:uid="{6BC57C1E-888D-4307-80A3-C59150F4C53F}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{1E945240-B3AF-41C1-B0EF-E478026D09BE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/archetypes/Archetypes.xlsx
+++ b/data/archetypes/Archetypes.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/Archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1CF476-F153-427D-BA6E-12ED13E4D71E}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B24D8FA7-A7FB-41C2-ACB4-B8F9375347E5}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="2" r:id="rId1"/>
-    <sheet name="data" sheetId="1" r:id="rId2"/>
+    <sheet name="data" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="README" sheetId="9" r:id="rId2"/>
+    <sheet name="archetypes" sheetId="3" r:id="rId3"/>
+    <sheet name="processes" sheetId="4" r:id="rId4"/>
+    <sheet name="deposit" sheetId="6" r:id="rId5"/>
+    <sheet name="ore" sheetId="7" r:id="rId6"/>
+    <sheet name="mining_method" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="320">
   <si>
     <t>Mineral Name</t>
   </si>
@@ -403,6 +408,504 @@
     <t>Chemical refining → Hall-Héroult process → Aluminum</t>
   </si>
   <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Orogenic</t>
+  </si>
+  <si>
+    <t>Free-milling</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Refractory</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Crushing</t>
+  </si>
+  <si>
+    <t>Gravity Separation</t>
+  </si>
+  <si>
+    <t>Electrorefining</t>
+  </si>
+  <si>
+    <t>Carlin-type</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>Free gold</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>Grinding</t>
+  </si>
+  <si>
+    <t>Electrowinning</t>
+  </si>
+  <si>
+    <t>Flotation</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Typical Ore Type</t>
+  </si>
+  <si>
+    <t>Lode gold in shear zones</t>
+  </si>
+  <si>
+    <t>Free-milling, Sulfide</t>
+  </si>
+  <si>
+    <t>Epithermal</t>
+  </si>
+  <si>
+    <t>Volcanic-hydrothermal systems</t>
+  </si>
+  <si>
+    <t>Oxide, Sulfide</t>
+  </si>
+  <si>
+    <t>Disseminated fine gold in sediments</t>
+  </si>
+  <si>
+    <t>Refractory, Sulfide</t>
+  </si>
+  <si>
+    <t>IOCG</t>
+  </si>
+  <si>
+    <t>Iron Oxide Copper Gold</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Alluvial, unconsolidated deposits</t>
+  </si>
+  <si>
+    <t>Oxide</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Native gold easily recoverable</t>
+  </si>
+  <si>
+    <t>Cyanide leaching after grinding</t>
+  </si>
+  <si>
+    <t>Weathered, non-refractory ore</t>
+  </si>
+  <si>
+    <t>Good cyanide recovery</t>
+  </si>
+  <si>
+    <t>Sulfide</t>
+  </si>
+  <si>
+    <t>Gold in pyrite/arsenopyrite matrix</t>
+  </si>
+  <si>
+    <t>Requires oxidation (roasting, pressure)</t>
+  </si>
+  <si>
+    <t>Gold locked in sulfides/silicates</t>
+  </si>
+  <si>
+    <t>Needs pre-treatment before leaching</t>
+  </si>
+  <si>
+    <t>archetype_id</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>ore_type</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <t>beneficiation</t>
+  </si>
+  <si>
+    <t>pre_treatment</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>refining</t>
+  </si>
+  <si>
+    <t>est_market_share (%)</t>
+  </si>
+  <si>
+    <t>representative_geometry</t>
+  </si>
+  <si>
+    <t>Roasting</t>
+  </si>
+  <si>
+    <t>CIL</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>Crushing, Grinding</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Electrowinning + Smelting</t>
+  </si>
+  <si>
+    <t>Canada, South Africa</t>
+  </si>
+  <si>
+    <t>Open-pit</t>
+  </si>
+  <si>
+    <t>Heap Leaching</t>
+  </si>
+  <si>
+    <t>Merrill-Crowe</t>
+  </si>
+  <si>
+    <t>Mexico, Peru</t>
+  </si>
+  <si>
+    <t>USA (Nevada)</t>
+  </si>
+  <si>
+    <t>Crushing, Grinding, Flotation</t>
+  </si>
+  <si>
+    <t>Pressure Oxidation</t>
+  </si>
+  <si>
+    <t>China, Uzbekistan</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>Alluvial / Dredging</t>
+  </si>
+  <si>
+    <t>CIL or Direct Smelting</t>
+  </si>
+  <si>
+    <t>Russia, Ghana</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>Bio-oxidation</t>
+  </si>
+  <si>
+    <t>Tanzania, Papua New Guinea</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>Crushing, Agglomeration</t>
+  </si>
+  <si>
+    <t>Indonesia, Australia</t>
+  </si>
+  <si>
+    <t>process_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Primary size reduction of ore</t>
+  </si>
+  <si>
+    <t>Secondary size reduction for liberation</t>
+  </si>
+  <si>
+    <t>Separation of sulfide minerals</t>
+  </si>
+  <si>
+    <t>Separation based on density differences</t>
+  </si>
+  <si>
+    <t>Pre-treatment</t>
+  </si>
+  <si>
+    <t>Thermal oxidation of sulfides</t>
+  </si>
+  <si>
+    <t>High-pressure oxidation in autoclaves</t>
+  </si>
+  <si>
+    <t>Biological oxidation using bacteria</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Low-cost gold recovery using cyanide solution</t>
+  </si>
+  <si>
+    <t>Carbon-in-leach cyanidation for gold recovery</t>
+  </si>
+  <si>
+    <t>Gold precipitation from solution using zinc</t>
+  </si>
+  <si>
+    <t>Electrolytic recovery of gold</t>
+  </si>
+  <si>
+    <t>Thermal melting and purification of gold</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Porphyry</t>
+  </si>
+  <si>
+    <t>Concentrate Smelting</t>
+  </si>
+  <si>
+    <t>Fire Refining + Electrorefining</t>
+  </si>
+  <si>
+    <t>Chile, Peru</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Sediment-hosted</t>
+  </si>
+  <si>
+    <t>SX-EW</t>
+  </si>
+  <si>
+    <t>Zambia, DRC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Volcanogenic Massive Sulfide (VMS)</t>
+  </si>
+  <si>
+    <t>Canada, Sweden</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Mixed Sulfide/Oxide</t>
+  </si>
+  <si>
+    <t>Crushing, Flotation (for sulfides), Agglomeration (for oxides)</t>
+  </si>
+  <si>
+    <t>Flotation + Heap Leaching</t>
+  </si>
+  <si>
+    <t>Mixed: Smelting and SX-EW</t>
+  </si>
+  <si>
+    <t>Mexico, USA</t>
+  </si>
+  <si>
+    <t>Separation of sulfide minerals from gangue</t>
+  </si>
+  <si>
+    <t>Agglomeration</t>
+  </si>
+  <si>
+    <t>Binding fine particles into larger granules for heap leaching</t>
+  </si>
+  <si>
+    <t>Low-cost recovery using acid leach for oxides</t>
+  </si>
+  <si>
+    <t>Solvent extraction and electrowinning for pure copper cathodes</t>
+  </si>
+  <si>
+    <t>Thermal smelting of copper concentrate to matte</t>
+  </si>
+  <si>
+    <t>Fire Refining</t>
+  </si>
+  <si>
+    <t>Oxidation and reduction of blister copper to remove impurities</t>
+  </si>
+  <si>
+    <t>Purification of copper by electrolysis</t>
+  </si>
+  <si>
+    <t>Cu_P1</t>
+  </si>
+  <si>
+    <t>Cu_P2</t>
+  </si>
+  <si>
+    <t>Cu_P3</t>
+  </si>
+  <si>
+    <t>Cu_P4</t>
+  </si>
+  <si>
+    <t>Cu_P5</t>
+  </si>
+  <si>
+    <t>Cu_P6</t>
+  </si>
+  <si>
+    <t>Cu_P7</t>
+  </si>
+  <si>
+    <t>Cu_P8</t>
+  </si>
+  <si>
+    <t>Cu_P9</t>
+  </si>
+  <si>
+    <t>Au_P1</t>
+  </si>
+  <si>
+    <t>Au_P2</t>
+  </si>
+  <si>
+    <t>Au_P3</t>
+  </si>
+  <si>
+    <t>Au_P4</t>
+  </si>
+  <si>
+    <t>Au_P5</t>
+  </si>
+  <si>
+    <t>Au_P6</t>
+  </si>
+  <si>
+    <t>Au_P7</t>
+  </si>
+  <si>
+    <t>Au_P8</t>
+  </si>
+  <si>
+    <t>Au_P9</t>
+  </si>
+  <si>
+    <t>Au_P10</t>
+  </si>
+  <si>
+    <t>Au_P11</t>
+  </si>
+  <si>
+    <t>Au_P12</t>
+  </si>
+  <si>
+    <t>Large, low-grade deposits associated with intrusive rocks</t>
+  </si>
+  <si>
+    <t>Sulfide, Oxide</t>
+  </si>
+  <si>
+    <t>Deposits in sedimentary rocks, often oxidized</t>
+  </si>
+  <si>
+    <t>VMS</t>
+  </si>
+  <si>
+    <t>Volcanogenic massive sulfide deposits rich in base metals</t>
+  </si>
+  <si>
+    <t>Skarn</t>
+  </si>
+  <si>
+    <t>Metasomatic deposits near intrusions</t>
+  </si>
+  <si>
+    <t>Stratiform</t>
+  </si>
+  <si>
+    <t>Layered sedimentary deposits with disseminated copper</t>
+  </si>
+  <si>
+    <t>Copper bound in sulfide minerals like chalcopyrite</t>
+  </si>
+  <si>
+    <t>Requires flotation and smelting</t>
+  </si>
+  <si>
+    <t>Copper minerals like malachite or chrysocolla</t>
+  </si>
+  <si>
+    <t>Amenable to heap leaching and SX-EW</t>
+  </si>
+  <si>
+    <t>Combination of sulfide and oxide minerals</t>
+  </si>
+  <si>
+    <t>Requires differential processing</t>
+  </si>
+  <si>
+    <t>Mining Method</t>
+  </si>
+  <si>
+    <t>Sub-Method</t>
+  </si>
+  <si>
+    <t>Relevant LCI Metrics</t>
+  </si>
+  <si>
+    <t>Open-Pit (Surface)</t>
+  </si>
+  <si>
+    <t>Truck–Shovel Open Pit</t>
+  </si>
+  <si>
+    <t>Large open excavation to mine near-surface ore. Ore and waste rock are drilled, blasted, and loaded in successive benches using electric or diesel shovels/loaders and large haul trucks. This method is suitable for large, relatively lower-grade deposits at shallow depth, with high production rates and economies of scale.</t>
+  </si>
+  <si>
+    <t>Block Caving</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A bulk underground method where a large ore block is </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -412,20 +915,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Title of the article</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
+      <t>undercut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and then allowed to collapse under its own weight, fragmenting the ore. It requires extensive upfront development (undercut level, drawpoints) and long lead time, but yields very high production (10–30 Mt/year) at low operating cost per tonne. Block caving is limited to massive deposits that will fracture and cave reliably.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>High electricity demand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for mine infrastructure – extensive ventilation and underground crushing/conveying systems. </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -435,20 +951,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Authors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
+      <t>Lower diesel use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (fewer trucks; LHDs often electric or used only at drawpoints). </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -458,20 +972,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Affiliations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
+      <t>Explosives mostly used in the initial undercut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; after that, gravity causes continuous breakage, so ongoing blasting needs are minimal. </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -481,34 +993,477 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Journal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
-    <t>TAB_NAME</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
+      <t>No cement backfill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is required, as broken waste rock caves in and supports the void.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sublevel Caving</t>
+  </si>
+  <si>
+    <t>An underground mass-mining method in which the orebody is mined in slices from the top downwards. Ore is drilled and blasted level by level on multiple sublevels, causing the overlaying waste rock to gradually cave into the void as ore is removed. Often used for moderately large, steeply-dipping deposits (sometimes as a transition below an exhausted open pit). It has faster ramp-up and lower capital than block caving but usually comes with higher ore dilution.</t>
+  </si>
+  <si>
+    <r>
+      <t>High explosives usage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – the entire orebody is fragmented by successive blasts. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Significant ventilation needs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to clear blast fumes and diesel exhaust (extensive network of drifts requires airflow). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diesel usage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is moderate to high (mobile drills, loaders, haul trucks on levels); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>electricity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is needed for ventilation fans and haulage (conveyors or hoist if used). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No cement backfill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is used because the voids are filled by caving waste rock.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Long-Hole Stoping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Sublevel Open Stoping)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Moderate-to-high explosives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use (long-hole blasts produce large tonnages per blast). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diesel-powered equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is used for drilling and mucking (load-haul-dump vehicles, trucks), so ventilation is required to dilute exhaust. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ventilation demand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is significant (large stopes and multiple levels to ventilate). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cemented backfill is commonly used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in mined-out stopes (e.g. paste fill made from tailings with ~3–7% cement binder) to provide support for adjacent stopes. Electricity is used for backfill mixing/pumping and for mine services (dewatering, crushing, hoisting).</t>
+    </r>
+  </si>
+  <si>
+    <t>Cut-and-Fill Stoping</t>
+  </si>
+  <si>
+    <t>A selective, iterative mining method for high-grade or irregular ore zones. Mining proceeds in horizontal slices (cuts) starting from a stope’s bottom. After each slice of ore is removed, the void is backfilled with waste rock or tailings (often with cement added) before mining the next slice above. This provides a working floor and wall support for the next cut, allowing near-complete ore recovery with flexible mining of complex ore shapes. Production is lower but ore grade control is high.</t>
+  </si>
+  <si>
+    <r>
+      <t>High cement consumption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> due to continuous backfilling – mine tailings or sand are mixed with cement (few percent by mass) to create a paste or hydraulic fill that hardens. This backfill practice adds significant energy and CO₂ footprint (cement is energy-intensive to produce). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diesel usage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is significant on a per-tonne basis (stopes are small and equipment like LHDs and trucks operate in confined areas), and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ventilation requirements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are high per tonne of ore because airflow must be provided to many dead-end stopes and headings. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explosives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are used in each cut (small-scale blasts), leading to continuous but smaller blasting rounds.</t>
+    </r>
+  </si>
+  <si>
+    <t>Room-and-Pillar</t>
+  </si>
+  <si>
+    <t>A method for flat or gently dipping deposits (often sedimentary formations). A network of horizontal entries (rooms) is excavated, leaving regular pillars of untouched rock in between to support the roof. This layout is a compromise between maximizing ore extraction and maintaining stability of the mine. Room-and-pillar is used mostly in bedded deposits with strong roof and ore (e.g. some zinc/lead or iron formations, and extensively in coal and potash mining). In metal mines it sees limited use, only where applicable geology exists.</t>
+  </si>
+  <si>
+    <r>
+      <t>Moderate diesel and explosives use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – mining progresses via standard drill-and-blast in rooms, and rubber-tired loaders/trucks haul ore out. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ventilation must cover large areas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of spread-out workings to dilute diesel exhaust and dust. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No cement backfill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is used during operation – support is provided by the rock pillars (and sometimes artificial supports); when mining is completed, pillars may be left or partially extracted (with controlled roof caving) as part of mine closure. Electricity usage is limited to underground lighting, pumping and any conveying systems (if utilized).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>High diesel consumption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for haulage by heavy trucks and loaders; substantial explosives use for bench blasting; no forced ventilation needed (operations in open air); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moderate electricity use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g. electric shovels, in-pit crushers); no cement backfill in extraction (waste rock is dumped externally or used in reclamation).</t>
+    </r>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>it uses lots of water flow (pumps) and typically diesel for excavators, but usually on a much
+smaller scale of operation – its energy per kilogram of gold might be high, but those operations are minor
+compared to big open pits.</t>
+  </si>
+  <si>
+    <t>For gold</t>
+  </si>
+  <si>
+    <t>Overall, within surface mining of metals, the variation
+in LCI is more due to scale and geology (e.g. the strip ratio, haul distance, and ore hardness affecting
+processing energy) than the named mining method.</t>
+  </si>
+  <si>
+    <t>A common high-productivity method for steeply dipping orebodies. Ore is blasted in large open stopes between sublevels: rings of long holes are drilled from sublevel drifts and blasted to create a cavity, and broken ore is removed from drawpoints at the stope base. Mines often use a primary-secondary stope sequence – primary stopes are mined first and then filled, allowing recovery of adjacent secondary stopes for high extraction. This method suits competent rock that can span open voids. High-grade gold mines often use long-hole stoping. Long-hole stoping is popular in Canada’s hard-rock gold and base metal mines for its efficiency and automation potential.</t>
+  </si>
+  <si>
+    <t>Cut-and-fill is a selective mining method for high-grade, irregular or narrow vein deposits. Mining proceeds in horizontal slices (cuts), starting from the bottom of the ore zone and advancing upward[10]. After each slice of ore is removed, the stope is backfilled (with waste rock or tailings paste) before mining the next slice on top of the fill[13]. This provides a working floor and wall support. Cut-and-fill offers excellent grade control and wall stability, making it suitable for steeply dipping vein deposits that are too narrow or discontinuous for long-hole methods[10]. Many narrow-vein gold and silver mines in Canada (and some sections of Sudbury’s nickel mines) have historically used cut-and-fill. It is more labor- and cost-intensive than long-hole stoping, but it minimizes dilution – critical in very high-grade zones. Some mines use mechanized cut-and-fill (with jumbos and LHDs) for thicker veins, versus conventional handheld for very narrow veins[14][15]. Cut-and-fill remains an important method for Canada’s highest-grade underground mines where selectivity outweighs bulk tonnage.</t>
+  </si>
+  <si>
+    <t>This method is prevalent in Canada’s soft-rock mineral mines – notably potash and salt mines, and historically some coal seams. For example, Nutrien’s massive potash mines in Saskatchewan (e.g. Rocanville) use continuous mining machines to cut ore using a multi-pass room-and-pillar layout[17]. Four-rotor miners cut 3 passes to form a room, then move over, leaving a pillar – a system called long room-and-pillar[17]. Similarly, the Goderich salt mine in Ontario (the world’s largest underground salt mine) is mined by classic room-and-pillar: large rectangular rooms 60×60 feet are excavated and salt pillars left in between for support[18]. This method recovers a portion of the resource (pillars are often 25–50% of the volume) unless pillars are subsequently partially extracted. Room-and-pillar provides safe, continuous production and is well-suited to these laterally extensive deposits[19]. (Notably, most of Canada’s Saskatchewan potash comes from room-and-pillar operations, with immense networks of openings 1 km or more deep.)</t>
+  </si>
+  <si>
+    <t>Plaver mining</t>
+  </si>
+  <si>
+    <t>Placer mining targets alluvial deposits of precious/heavy minerals (like gold) in sand and gravel. Water and gravity are used to separate dense minerals. Industrial-scale placer mines use heavy equipment: e.g. excavators feed wash plants with gravel, which is sluiced to recover gold[7][8]. This method was historically significant (the Klondike/Yukon gold rush) and is still employed by smaller operations in Yukon and British Columbia. Some operations use floating dredges or barges to excavate and process submerged gravels[9]. Placer mining is highly deposit-specific and generally smaller-scale than hard-rock mining.</t>
+  </si>
+  <si>
+    <t>In Canada</t>
+  </si>
+  <si>
+    <t>Solution and in-situ</t>
+  </si>
+  <si>
+    <t>Solution mining</t>
+  </si>
+  <si>
+    <t>This method is used for soluble minerals like potash, salt, or uranium, where water or another solvent can be circulated through the deposit to dissolve the mineral and recover it as brine. Canada is a leader in potash solution mining. The Mosaic Belle Plaine mine in Saskatchewan was the world’s first potash solution mine and remains the largest of its kind[24]. At Belle Plaine, hot water is injected via wells into a deep potash deposit, dissolving potassium salts, and the brine is pumped to surface and evaporated to produce potash[24]. Solution mining is chosen when deposits are too deep, low-grade, or wet for conventional shafts (Belle Plaine’s ore is around 1500 m deep). It has a lower surface footprint and can be cost-effective, though energy is needed for pumping and evaporation. Aside from potash, some salt deposits are also solution mined in Canada for industrial salt or brine (water is pumped underground to dissolve salt, then brine brought up).</t>
+  </si>
+  <si>
+    <t>For potash and salt</t>
+  </si>
+  <si>
+    <t>A form of solution mining for uranium used widely in the US and Central Asia. However, in Canada this method has not yet been used in operating mines[25]. Canada’s high-grade uranium deposits in Saskatchewan occur in water-saturated sandstone, but instead of true in-situ leaching, companies like Cameco developed unique non-entry methods. For example, at the Cigar Lake uranium mine, a “jet boring” technique is used: ground is frozen and a high-pressure water jet carves out the ore, which is collected as a slurry[26]. This is essentially an underground mining method (with personnel underground but operating remotely from tunnels), not a wellfield solution mine. Looking ahead, Denison Mines is testing in-situ recovery on a high-grade deposit (Phoenix at Wheeler River), which would be Canada’s first ISR uranium operation if approved[25]. In summary, while true well-style in-situ mining is not yet deployed in Canada (aside from potash), it’s an emerging possibility for the future in uranium extraction.</t>
+  </si>
+  <si>
+    <t>For uranium (but not yet operational in Canada?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +1473,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -560,12 +1523,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,6 +1568,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,60 +1836,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13F0987-1BAC-4A3E-B5AE-45F4877147C8}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -1435,4 +2372,1350 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE2CB-8CF4-487C-8D07-0563E42F7E93}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004A5AEE-AAE0-485C-AB43-7F57569D3D8C}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8CE712-B1BE-46D6-A7FC-423DF5543CE7}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647BF66B-6E65-45DB-A890-B074FAD632A8}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0917040-6094-4325-9531-F6B75C35619B}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457F5F60-6EB5-493F-895E-B4CCA2C7BEF1}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="86.77734375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="63" style="10" customWidth="1"/>
+    <col min="5" max="5" width="61.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>